--- a/raw_data/20200818_saline/20200818_Sensor3_Test_32.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_32.xlsx
@@ -1,993 +1,1409 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3051F07-09E1-4D0F-B31D-C7CB8118DECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>28458.615530</v>
+        <v>28458.615529999999</v>
       </c>
       <c r="B2" s="1">
-        <v>7.905171</v>
+        <v>7.9051710000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.590000</v>
+        <v>1149.5899999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-260.580000</v>
+        <v>-260.58</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>28469.324117</v>
       </c>
       <c r="G2" s="1">
-        <v>7.908146</v>
+        <v>7.9081460000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>1171.290000</v>
+        <v>1171.29</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.657000</v>
+        <v>-217.65700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>28479.769400</v>
+        <v>28479.769400000001</v>
       </c>
       <c r="L2" s="1">
-        <v>7.911047</v>
+        <v>7.9110469999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1199.100000</v>
+        <v>1199.0999999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.277000</v>
+        <v>-151.27699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>28490.022202</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.913895</v>
+        <v>7.9138950000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1206.630000</v>
+        <v>1206.6300000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.826000</v>
+        <v>-128.82599999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>28500.283405</v>
+        <v>28500.283404999998</v>
       </c>
       <c r="V2" s="1">
-        <v>7.916745</v>
+        <v>7.9167449999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.681000</v>
+        <v>-107.681</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>28510.349745</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.919542</v>
+        <v>7.9195419999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1221.140000</v>
+        <v>1221.1400000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.500200</v>
+        <v>-90.500200000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>28520.602056</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.922389</v>
+        <v>7.9223889999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1225.550000</v>
+        <v>1225.55</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.834100</v>
+        <v>-85.834100000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>28530.734325</v>
+        <v>28530.734325000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.925204</v>
+        <v>7.9252039999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1232.440000</v>
+        <v>1232.44</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.071900</v>
+        <v>-89.071899999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>28540.960312</v>
+        <v>28540.960311999999</v>
       </c>
       <c r="AP2" s="1">
         <v>7.928045</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1240.190000</v>
+        <v>1240.19</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.991000</v>
+        <v>-100.991</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>28552.364361</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.931212</v>
+        <v>7.9312120000000004</v>
       </c>
       <c r="AV2" s="1">
-        <v>1249.970000</v>
+        <v>1249.97</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.320000</v>
+        <v>-120.32</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>28563.486122</v>
+        <v>28563.486121999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.934302</v>
+        <v>7.9343019999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1258.270000</v>
+        <v>1258.27</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.814000</v>
+        <v>-137.81399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>28574.387011</v>
+        <v>28574.387010999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.937330</v>
+        <v>7.9373300000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.870000</v>
+        <v>1297.8699999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.129000</v>
+        <v>-220.12899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>28585.390475</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.940386</v>
+        <v>7.9403860000000002</v>
       </c>
       <c r="BK2" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.484000</v>
+        <v>-357.48399999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>28596.800413</v>
+        <v>28596.800413000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.943556</v>
+        <v>7.9435560000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1480.990000</v>
+        <v>1480.99</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-581.369000</v>
+        <v>-581.36900000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>28607.863216</v>
+        <v>28607.863216000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.946629</v>
+        <v>7.9466289999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1613.210000</v>
+        <v>1613.21</v>
       </c>
       <c r="BV2" s="1">
-        <v>-834.355000</v>
+        <v>-834.35500000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>28618.861472</v>
+        <v>28618.861472000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.949684</v>
+        <v>7.9496840000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1764.560000</v>
+        <v>1764.56</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1110.060000</v>
+        <v>-1110.06</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>28629.884065</v>
+        <v>28629.884064999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.952746</v>
+        <v>7.9527460000000003</v>
       </c>
       <c r="CE2" s="1">
-        <v>2183.100000</v>
+        <v>2183.1</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1781.720000</v>
+        <v>-1781.72</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>28459.296034</v>
+        <v>28459.296033999999</v>
       </c>
       <c r="B3" s="1">
-        <v>7.905360</v>
+        <v>7.9053599999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1150.030000</v>
+        <v>1150.03</v>
       </c>
       <c r="D3" s="1">
-        <v>-260.184000</v>
+        <v>-260.18400000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>28469.703557</v>
+        <v>28469.703557000001</v>
       </c>
       <c r="G3" s="1">
-        <v>7.908251</v>
+        <v>7.9082509999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1171.480000</v>
+        <v>1171.48</v>
       </c>
       <c r="I3" s="1">
-        <v>-218.153000</v>
+        <v>-218.15299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>28480.184519</v>
+        <v>28480.184518999999</v>
       </c>
       <c r="L3" s="1">
         <v>7.911162</v>
       </c>
       <c r="M3" s="1">
-        <v>1199.310000</v>
+        <v>1199.31</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.278000</v>
+        <v>-151.27799999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>28490.371850</v>
+        <v>28490.37185</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.913992</v>
+        <v>7.9139920000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>1206.720000</v>
+        <v>1206.72</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.852000</v>
+        <v>-128.852</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>28500.626141</v>
+        <v>28500.626141000001</v>
       </c>
       <c r="V3" s="1">
-        <v>7.916841</v>
+        <v>7.9168409999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.665000</v>
+        <v>-107.66500000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>28510.734639</v>
+        <v>28510.734638999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.919649</v>
+        <v>7.9196489999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>1221.060000</v>
+        <v>1221.06</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.295700</v>
+        <v>-90.295699999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>28521.027585</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.922508</v>
+        <v>7.9225079999999997</v>
       </c>
       <c r="AG3" s="1">
-        <v>1225.520000</v>
+        <v>1225.52</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.854100</v>
+        <v>-85.854100000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>28531.148452</v>
+        <v>28531.148452000001</v>
       </c>
       <c r="AK3" s="1">
         <v>7.925319</v>
       </c>
       <c r="AL3" s="1">
-        <v>1232.410000</v>
+        <v>1232.4100000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.087900</v>
+        <v>-89.087900000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>28541.392822</v>
+        <v>28541.392822000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.928165</v>
+        <v>7.9281649999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1240.180000</v>
+        <v>1240.18</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.996000</v>
+        <v>-100.996</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>28552.731367</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.931314</v>
+        <v>7.9313140000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.318000</v>
+        <v>-120.318</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>28563.845721</v>
+        <v>28563.845721000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.934402</v>
+        <v>7.9344020000000004</v>
       </c>
       <c r="BA3" s="1">
-        <v>1258.280000</v>
+        <v>1258.28</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.846000</v>
+        <v>-137.846</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>28574.751754</v>
+        <v>28574.751754000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.937431</v>
+        <v>7.9374310000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.148000</v>
+        <v>-220.148</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>28586.159243</v>
+        <v>28586.159242999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.940600</v>
+        <v>7.9405999999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1367.030000</v>
+        <v>1367.03</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.435000</v>
+        <v>-357.435</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>28597.230445</v>
+        <v>28597.230445000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.943675</v>
+        <v>7.9436749999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1481.020000</v>
+        <v>1481.02</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-581.324000</v>
+        <v>-581.32399999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>28608.285316</v>
+        <v>28608.285316000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.946746</v>
+        <v>7.9467460000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1613.210000</v>
+        <v>1613.21</v>
       </c>
       <c r="BV3" s="1">
-        <v>-834.611000</v>
+        <v>-834.61099999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>28619.327711</v>
+        <v>28619.327711000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.949813</v>
+        <v>7.9498129999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1764.710000</v>
+        <v>1764.71</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1110.060000</v>
+        <v>-1110.06</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>28630.481248</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.952911</v>
+        <v>7.9529110000000003</v>
       </c>
       <c r="CE3" s="1">
-        <v>2184.360000</v>
+        <v>2184.36</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1778.680000</v>
+        <v>-1778.68</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>28459.663042</v>
       </c>
@@ -995,330 +1411,330 @@
         <v>7.905462</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.940000</v>
+        <v>1149.94</v>
       </c>
       <c r="D4" s="1">
-        <v>-260.398000</v>
+        <v>-260.39800000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>28470.051252</v>
+        <v>28470.051252000001</v>
       </c>
       <c r="G4" s="1">
-        <v>7.908348</v>
+        <v>7.9083480000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1171.700000</v>
+        <v>1171.7</v>
       </c>
       <c r="I4" s="1">
-        <v>-218.335000</v>
+        <v>-218.33500000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>28480.524775</v>
+        <v>28480.524775000002</v>
       </c>
       <c r="L4" s="1">
         <v>7.911257</v>
       </c>
       <c r="M4" s="1">
-        <v>1199.000000</v>
+        <v>1199</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.423000</v>
+        <v>-151.423</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>28490.720068</v>
+        <v>28490.720067999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.914089</v>
+        <v>7.9140889999999997</v>
       </c>
       <c r="R4" s="1">
-        <v>1206.640000</v>
+        <v>1206.6400000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.893000</v>
+        <v>-128.893</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>28501.193706</v>
+        <v>28501.193705999998</v>
       </c>
       <c r="V4" s="1">
-        <v>7.916998</v>
+        <v>7.9169980000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>1213.760000</v>
+        <v>1213.76</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.781000</v>
+        <v>-107.78100000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>28511.159348</v>
+        <v>28511.159348000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.919766</v>
+        <v>7.9197660000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1221.060000</v>
+        <v>1221.06</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.429100</v>
+        <v>-90.429100000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>28521.343537</v>
+        <v>28521.343537000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.922595</v>
+        <v>7.9225950000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1225.510000</v>
+        <v>1225.51</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.835500</v>
+        <v>-85.835499999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>28531.493204</v>
+        <v>28531.493203999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.925415</v>
+        <v>7.9254150000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1232.420000</v>
+        <v>1232.42</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.076700</v>
+        <v>-89.076700000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>28541.752917</v>
+        <v>28541.752917000002</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.928265</v>
+        <v>7.9282649999999997</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1240.180000</v>
+        <v>1240.18</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.980000</v>
+        <v>-100.98</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>28553.097446</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.931416</v>
+        <v>7.9314159999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.320000</v>
+        <v>-120.32</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>28564.207331</v>
+        <v>28564.207331000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.934502</v>
+        <v>7.9345020000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1258.250000</v>
+        <v>1258.25</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.818000</v>
+        <v>-137.81800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>28575.473929</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.937632</v>
+        <v>7.9376319999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1297.870000</v>
+        <v>1297.8699999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.143000</v>
+        <v>-220.143</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>28586.554554</v>
+        <v>28586.554553999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.940710</v>
+        <v>7.9407100000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1367.020000</v>
+        <v>1367.02</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.494000</v>
+        <v>-357.49400000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>28597.638690</v>
+        <v>28597.63869</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.943789</v>
+        <v>7.9437889999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1480.940000</v>
+        <v>1480.94</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-581.377000</v>
+        <v>-581.37699999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>28608.704893</v>
+        <v>28608.704892999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.946862</v>
+        <v>7.9468620000000003</v>
       </c>
       <c r="BU4" s="1">
-        <v>1613.040000</v>
+        <v>1613.04</v>
       </c>
       <c r="BV4" s="1">
-        <v>-834.853000</v>
+        <v>-834.85299999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>28620.083118</v>
+        <v>28620.083117999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.950023</v>
+        <v>7.9500229999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1764.830000</v>
+        <v>1764.83</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1110.130000</v>
+        <v>-1110.1300000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>28631.330928</v>
+        <v>28631.330927999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.953147</v>
+        <v>7.9531470000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>2183.730000</v>
+        <v>2183.73</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1781.650000</v>
+        <v>-1781.65</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>28460.006274</v>
+        <v>28460.006273999999</v>
       </c>
       <c r="B5" s="1">
-        <v>7.905557</v>
+        <v>7.9055569999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.830000</v>
+        <v>1149.83</v>
       </c>
       <c r="D5" s="1">
-        <v>-260.205000</v>
+        <v>-260.20499999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>28470.394484</v>
       </c>
       <c r="G5" s="1">
-        <v>7.908443</v>
+        <v>7.9084430000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1171.970000</v>
+        <v>1171.97</v>
       </c>
       <c r="I5" s="1">
-        <v>-218.358000</v>
+        <v>-218.358</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>28480.868502</v>
+        <v>28480.868502000001</v>
       </c>
       <c r="L5" s="1">
-        <v>7.911352</v>
+        <v>7.9113519999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1199.140000</v>
+        <v>1199.1400000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.488000</v>
+        <v>-151.488</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>28491.144135</v>
+        <v>28491.144134999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.914207</v>
+        <v>7.9142070000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1206.690000</v>
+        <v>1206.69</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.947000</v>
+        <v>-128.947</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>28501.315083</v>
+        <v>28501.315083000001</v>
       </c>
       <c r="V5" s="1">
-        <v>7.917032</v>
+        <v>7.9170319999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.700000</v>
+        <v>-107.7</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>28511.452847</v>
@@ -1327,754 +1743,754 @@
         <v>7.919848</v>
       </c>
       <c r="AB5" s="1">
-        <v>1220.860000</v>
+        <v>1220.8599999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.544100</v>
+        <v>-90.5441</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>28521.688785</v>
+        <v>28521.688784999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.922691</v>
+        <v>7.9226910000000004</v>
       </c>
       <c r="AG5" s="1">
-        <v>1225.530000</v>
+        <v>1225.53</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.830000</v>
+        <v>-85.83</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>28531.844835</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.925512</v>
+        <v>7.9255120000000003</v>
       </c>
       <c r="AL5" s="1">
-        <v>1232.400000</v>
+        <v>1232.4000000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.092400</v>
+        <v>-89.092399999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>28542.113014</v>
+        <v>28542.113013999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.928365</v>
+        <v>7.9283650000000003</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1240.180000</v>
+        <v>1240.18</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.985000</v>
+        <v>-100.985</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>28553.827061</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.931619</v>
+        <v>7.9316190000000004</v>
       </c>
       <c r="AV5" s="1">
-        <v>1249.940000</v>
+        <v>1249.94</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.341000</v>
+        <v>-120.34099999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>28564.926503</v>
+        <v>28564.926502999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.934702</v>
+        <v>7.9347019999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.863000</v>
+        <v>-137.863</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>28575.852376</v>
+        <v>28575.852375999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.937737</v>
+        <v>7.9377370000000003</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.880000</v>
+        <v>1297.8800000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.148000</v>
+        <v>-220.148</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>28586.931018</v>
+        <v>28586.931017999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.940814</v>
+        <v>7.9408139999999996</v>
       </c>
       <c r="BK5" s="1">
-        <v>1367.030000</v>
+        <v>1367.03</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.468000</v>
+        <v>-357.46800000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>28598.036971</v>
+        <v>28598.036971000001</v>
       </c>
       <c r="BO5" s="1">
         <v>7.943899</v>
       </c>
       <c r="BP5" s="1">
-        <v>1481.000000</v>
+        <v>1481</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-581.431000</v>
+        <v>-581.43100000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>28609.434040</v>
+        <v>28609.43404</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.947065</v>
+        <v>7.9470650000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>1612.810000</v>
+        <v>1612.81</v>
       </c>
       <c r="BV5" s="1">
-        <v>-834.971000</v>
+        <v>-834.971</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>28620.206158</v>
+        <v>28620.206158000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.950057</v>
+        <v>7.9500570000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1764.710000</v>
+        <v>1764.71</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1110.210000</v>
+        <v>-1110.21</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>28631.558560</v>
+        <v>28631.558560000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.953211</v>
+        <v>7.9532109999999996</v>
       </c>
       <c r="CE5" s="1">
-        <v>2183.370000</v>
+        <v>2183.37</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1781.350000</v>
+        <v>-1781.35</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>28460.348021</v>
+        <v>28460.348021000002</v>
       </c>
       <c r="B6" s="1">
-        <v>7.905652</v>
+        <v>7.9056519999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.830000</v>
+        <v>1149.83</v>
       </c>
       <c r="D6" s="1">
-        <v>-260.303000</v>
+        <v>-260.303</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>28470.820548</v>
       </c>
       <c r="G6" s="1">
-        <v>7.908561</v>
+        <v>7.9085609999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.880000</v>
+        <v>1170.8800000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-218.579000</v>
+        <v>-218.57900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>28481.300550</v>
+        <v>28481.30055</v>
       </c>
       <c r="L6" s="1">
-        <v>7.911472</v>
+        <v>7.9114719999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>1198.850000</v>
+        <v>1198.8499999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.322000</v>
+        <v>-151.322</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>28491.418904</v>
+        <v>28491.418903999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.914283</v>
+        <v>7.9142830000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.922000</v>
+        <v>-128.922</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>28501.659319</v>
+        <v>28501.659318999999</v>
       </c>
       <c r="V6" s="1">
-        <v>7.917128</v>
+        <v>7.9171279999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.742000</v>
+        <v>-107.742</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>28511.800014</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.919944</v>
+        <v>7.9199440000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1221.320000</v>
+        <v>1221.32</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.472700</v>
+        <v>-90.472700000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>28522.031487</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.922787</v>
+        <v>7.9227869999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>1225.540000</v>
+        <v>1225.54</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.845100</v>
+        <v>-85.845100000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>28532.194514</v>
+        <v>28532.194513999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.925610</v>
+        <v>7.9256099999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1232.420000</v>
+        <v>1232.42</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.068600</v>
+        <v>-89.068600000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>28542.832709</v>
+        <v>28542.832708999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.928565</v>
+        <v>7.9285649999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1240.180000</v>
+        <v>1240.18</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.977000</v>
+        <v>-100.977</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>28554.210437</v>
+        <v>28554.210437000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.931725</v>
+        <v>7.9317250000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.358000</v>
+        <v>-120.358</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>28565.283127</v>
+        <v>28565.283126999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.934801</v>
+        <v>7.9348010000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>1258.280000</v>
+        <v>1258.28</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.837000</v>
+        <v>-137.83699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>28576.211021</v>
+        <v>28576.211020999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.937836</v>
+        <v>7.9378359999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1297.880000</v>
+        <v>1297.8800000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.150000</v>
+        <v>-220.15</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>28587.616986</v>
+        <v>28587.616986000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.941005</v>
+        <v>7.9410049999999996</v>
       </c>
       <c r="BK6" s="1">
-        <v>1367.040000</v>
+        <v>1367.04</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.495000</v>
+        <v>-357.495</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>28598.773994</v>
+        <v>28598.773993999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.944104</v>
+        <v>7.9441040000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1480.980000</v>
+        <v>1480.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-581.396000</v>
+        <v>-581.39599999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>28609.552557</v>
+        <v>28609.552556999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.947098</v>
+        <v>7.9470980000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>1612.690000</v>
+        <v>1612.69</v>
       </c>
       <c r="BV6" s="1">
-        <v>-835.000000</v>
+        <v>-835</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>28620.645582</v>
+        <v>28620.645582000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.950179</v>
+        <v>7.9501790000000003</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1764.710000</v>
+        <v>1764.71</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1110.120000</v>
+        <v>-1110.1199999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>28632.078366</v>
+        <v>28632.078366000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.953355</v>
+        <v>7.9533550000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>2184.500000</v>
+        <v>2184.5</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1779.960000</v>
+        <v>-1779.96</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>28460.783536</v>
+        <v>28460.783535999999</v>
       </c>
       <c r="B7" s="1">
-        <v>7.905773</v>
+        <v>7.9057729999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1150.190000</v>
+        <v>1150.19</v>
       </c>
       <c r="D7" s="1">
-        <v>-260.239000</v>
+        <v>-260.23899999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>28471.098309</v>
+        <v>28471.098309000001</v>
       </c>
       <c r="G7" s="1">
-        <v>7.908638</v>
+        <v>7.9086379999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1171.860000</v>
+        <v>1171.8599999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.644000</v>
+        <v>-217.64400000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>28481.566869</v>
+        <v>28481.566868999998</v>
       </c>
       <c r="L7" s="1">
-        <v>7.911546</v>
+        <v>7.9115460000000004</v>
       </c>
       <c r="M7" s="1">
-        <v>1198.950000</v>
+        <v>1198.95</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.380000</v>
+        <v>-151.38</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>28491.765608</v>
+        <v>28491.765608000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.914379</v>
+        <v>7.9143790000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.854000</v>
+        <v>-128.85400000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>28502.001578</v>
+        <v>28502.001577999999</v>
       </c>
       <c r="V7" s="1">
-        <v>7.917223</v>
+        <v>7.9172229999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1213.760000</v>
+        <v>1213.76</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.659000</v>
+        <v>-107.65900000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>28512.149233</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.920041</v>
+        <v>7.9200410000000003</v>
       </c>
       <c r="AB7" s="1">
-        <v>1221.070000</v>
+        <v>1221.07</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.434900</v>
+        <v>-90.434899999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>28522.718479</v>
+        <v>28522.718478999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.922977</v>
+        <v>7.9229770000000004</v>
       </c>
       <c r="AG7" s="1">
-        <v>1225.530000</v>
+        <v>1225.53</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.804500</v>
+        <v>-85.804500000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>28532.891394</v>
+        <v>28532.891393999998</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.925803</v>
+        <v>7.9258030000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1232.460000</v>
+        <v>1232.46</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.078200</v>
+        <v>-89.078199999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>28543.195780</v>
+        <v>28543.195779999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.928665</v>
+        <v>7.9286649999999996</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1240.180000</v>
+        <v>1240.18</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.984000</v>
+        <v>-100.98399999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>28554.579957</v>
+        <v>28554.579957000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.931828</v>
+        <v>7.9318280000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.326000</v>
+        <v>-120.32599999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>28565.644710</v>
+        <v>28565.64471</v>
       </c>
       <c r="AZ7" s="1">
         <v>7.934901</v>
       </c>
       <c r="BA7" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.830000</v>
+        <v>-137.83000000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>28576.895463</v>
+        <v>28576.895463000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.938027</v>
+        <v>7.9380269999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1297.880000</v>
+        <v>1297.8800000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.104000</v>
+        <v>-220.10400000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>28588.056440</v>
+        <v>28588.05644</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.941127</v>
+        <v>7.9411269999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1367.060000</v>
+        <v>1367.06</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.504000</v>
+        <v>-357.50400000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>28598.891050</v>
+        <v>28598.891049999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.944136</v>
+        <v>7.9441360000000003</v>
       </c>
       <c r="BP7" s="1">
-        <v>1481.040000</v>
+        <v>1481.04</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-581.430000</v>
+        <v>-581.42999999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>28609.960267</v>
+        <v>28609.960266999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.947211</v>
+        <v>7.9472110000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1612.450000</v>
+        <v>1612.45</v>
       </c>
       <c r="BV7" s="1">
-        <v>-835.035000</v>
+        <v>-835.03499999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>28621.101405</v>
+        <v>28621.101405000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.950306</v>
+        <v>7.9503060000000003</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1764.780000</v>
+        <v>1764.78</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1110.150000</v>
+        <v>-1110.1500000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>28632.599166</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.953500</v>
+        <v>7.9535</v>
       </c>
       <c r="CE7" s="1">
-        <v>2184.230000</v>
+        <v>2184.23</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1781.130000</v>
+        <v>-1781.13</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>28461.063248</v>
+        <v>28461.063247999999</v>
       </c>
       <c r="B8" s="1">
-        <v>7.905851</v>
+        <v>7.9058510000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1150.090000</v>
+        <v>1150.0899999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-260.324000</v>
+        <v>-260.32400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>28471.443523</v>
+        <v>28471.443523000002</v>
       </c>
       <c r="G8" s="1">
-        <v>7.908734</v>
+        <v>7.9087339999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1171.510000</v>
+        <v>1171.51</v>
       </c>
       <c r="I8" s="1">
-        <v>-218.397000</v>
+        <v>-218.39699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>28481.912084</v>
       </c>
       <c r="L8" s="1">
-        <v>7.911642</v>
+        <v>7.9116419999999996</v>
       </c>
       <c r="M8" s="1">
-        <v>1198.800000</v>
+        <v>1198.8</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.221000</v>
+        <v>-151.221</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>28492.114823</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.914476</v>
+        <v>7.9144759999999996</v>
       </c>
       <c r="R8" s="1">
-        <v>1206.710000</v>
+        <v>1206.71</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.845000</v>
+        <v>-128.845</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>28502.689003</v>
@@ -2083,163 +2499,163 @@
         <v>7.917414</v>
       </c>
       <c r="W8" s="1">
-        <v>1213.770000</v>
+        <v>1213.77</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.716000</v>
+        <v>-107.71599999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>28512.848556</v>
+        <v>28512.848556000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.920236</v>
+        <v>7.9202360000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1221.030000</v>
+        <v>1221.03</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.283700</v>
+        <v>-90.283699999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>28523.061678</v>
+        <v>28523.061677999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.923073</v>
+        <v>7.9230729999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>1225.580000</v>
+        <v>1225.58</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.818500</v>
+        <v>-85.8185</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>28533.240721</v>
+        <v>28533.240720999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.925900</v>
+        <v>7.9259000000000004</v>
       </c>
       <c r="AL8" s="1">
-        <v>1232.440000</v>
+        <v>1232.44</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.070400</v>
+        <v>-89.070400000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>28543.553925</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.928765</v>
+        <v>7.9287650000000003</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1240.170000</v>
+        <v>1240.17</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.954000</v>
+        <v>-100.95399999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>28555.254516</v>
+        <v>28555.254516000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.932015</v>
+        <v>7.9320149999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.327000</v>
+        <v>-120.327</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>28566.318773</v>
+        <v>28566.318772999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.935089</v>
+        <v>7.9350889999999996</v>
       </c>
       <c r="BA8" s="1">
-        <v>1258.280000</v>
+        <v>1258.28</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.831000</v>
+        <v>-137.83099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>28577.325992</v>
+        <v>28577.325991999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.938146</v>
+        <v>7.9381459999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.126000</v>
+        <v>-220.126</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>28588.433433</v>
+        <v>28588.433432999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.941232</v>
+        <v>7.9412320000000003</v>
       </c>
       <c r="BK8" s="1">
-        <v>1367.060000</v>
+        <v>1367.06</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.496000</v>
+        <v>-357.49599999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>28599.278463</v>
+        <v>28599.278462999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.944244</v>
+        <v>7.9442440000000003</v>
       </c>
       <c r="BP8" s="1">
-        <v>1480.980000</v>
+        <v>1480.98</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-581.345000</v>
+        <v>-581.34500000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>28610.391787</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.947331</v>
+        <v>7.9473310000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1612.290000</v>
+        <v>1612.29</v>
       </c>
       <c r="BV8" s="1">
-        <v>-834.794000</v>
+        <v>-834.79399999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>28621.552269</v>
@@ -2248,1495 +2664,1495 @@
         <v>7.950431</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1764.740000</v>
+        <v>1764.74</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1110.040000</v>
+        <v>-1110.04</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>28633.146749</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.953652</v>
+        <v>7.9536519999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2182.890000</v>
+        <v>2182.89</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1780.910000</v>
+        <v>-1780.91</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>28461.405488</v>
       </c>
       <c r="B9" s="1">
-        <v>7.905946</v>
+        <v>7.9059460000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D9" s="1">
-        <v>-260.220000</v>
+        <v>-260.22000000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>28471.789274</v>
+        <v>28471.789273999999</v>
       </c>
       <c r="G9" s="1">
-        <v>7.908830</v>
+        <v>7.90883</v>
       </c>
       <c r="H9" s="1">
-        <v>1171.410000</v>
+        <v>1171.4100000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.646000</v>
+        <v>-218.64599999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>28482.253333</v>
+        <v>28482.253333000001</v>
       </c>
       <c r="L9" s="1">
-        <v>7.911737</v>
+        <v>7.9117369999999996</v>
       </c>
       <c r="M9" s="1">
-        <v>1198.910000</v>
+        <v>1198.9100000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.217000</v>
+        <v>-151.21700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>28492.812677</v>
+        <v>28492.812677000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>7.914670</v>
+        <v>7.9146700000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1206.740000</v>
+        <v>1206.74</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.867000</v>
+        <v>-128.86699999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>28503.032730</v>
+        <v>28503.032729999999</v>
       </c>
       <c r="V9" s="1">
-        <v>7.917509</v>
+        <v>7.9175089999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.669000</v>
+        <v>-107.669</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>28513.196251</v>
+        <v>28513.196251000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.920332</v>
+        <v>7.9203320000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1221.210000</v>
+        <v>1221.21</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.237400</v>
+        <v>-90.237399999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>28523.406894</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.923169</v>
+        <v>7.9231689999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>1225.550000</v>
+        <v>1225.55</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.829400</v>
+        <v>-85.829400000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>28533.586786</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.925996</v>
+        <v>7.9259959999999996</v>
       </c>
       <c r="AL9" s="1">
-        <v>1232.430000</v>
+        <v>1232.43</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.098900</v>
+        <v>-89.0989</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>28544.235394</v>
+        <v>28544.235393999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.928954</v>
+        <v>7.9289540000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1240.180000</v>
+        <v>1240.18</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.978000</v>
+        <v>-100.97799999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>28555.706371</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.932141</v>
+        <v>7.9321409999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>1249.970000</v>
+        <v>1249.97</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.330000</v>
+        <v>-120.33</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>28566.752305</v>
+        <v>28566.752305000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.935209</v>
+        <v>7.9352090000000004</v>
       </c>
       <c r="BA9" s="1">
-        <v>1258.270000</v>
+        <v>1258.27</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.837000</v>
+        <v>-137.83699999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>28577.684103</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.938246</v>
+        <v>7.9382460000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.148000</v>
+        <v>-220.148</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>28588.810359</v>
+        <v>28588.810358999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.941336</v>
+        <v>7.9413359999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1367.010000</v>
+        <v>1367.01</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.487000</v>
+        <v>-357.48700000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>28599.701370</v>
+        <v>28599.701369999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.944361</v>
+        <v>7.9443609999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1480.970000</v>
+        <v>1480.97</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-581.424000</v>
+        <v>-581.42399999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>28610.818842</v>
+        <v>28610.818842000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.947450</v>
+        <v>7.9474499999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1612.190000</v>
+        <v>1612.19</v>
       </c>
       <c r="BV9" s="1">
-        <v>-834.624000</v>
+        <v>-834.62400000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>28621.975355</v>
+        <v>28621.975354999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.950549</v>
+        <v>7.9505489999999996</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1764.470000</v>
+        <v>1764.47</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1110.070000</v>
+        <v>-1110.07</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>28633.678957</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.953800</v>
+        <v>7.9538000000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>2184.860000</v>
+        <v>2184.86</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1780.390000</v>
+        <v>-1780.39</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>28461.750240</v>
+        <v>28461.750240000001</v>
       </c>
       <c r="B10" s="1">
-        <v>7.906042</v>
+        <v>7.9060420000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1150.180000</v>
+        <v>1150.18</v>
       </c>
       <c r="D10" s="1">
-        <v>-260.467000</v>
+        <v>-260.46699999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>28472.477187</v>
       </c>
       <c r="G10" s="1">
-        <v>7.909021</v>
+        <v>7.9090210000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1171.220000</v>
+        <v>1171.22</v>
       </c>
       <c r="I10" s="1">
-        <v>-218.438000</v>
+        <v>-218.43799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>28482.945289</v>
+        <v>28482.945288999999</v>
       </c>
       <c r="L10" s="1">
-        <v>7.911929</v>
+        <v>7.9119289999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1198.870000</v>
+        <v>1198.8699999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.861000</v>
+        <v>-150.86099999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>28493.163368</v>
+        <v>28493.163368000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.914768</v>
+        <v>7.9147679999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>1206.730000</v>
+        <v>1206.73</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.895000</v>
+        <v>-128.89500000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>28503.378440</v>
+        <v>28503.37844</v>
       </c>
       <c r="V10" s="1">
         <v>7.917605</v>
       </c>
       <c r="W10" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.725000</v>
+        <v>-107.72499999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>28513.545435</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.920429</v>
+        <v>7.9204290000000004</v>
       </c>
       <c r="AB10" s="1">
-        <v>1220.990000</v>
+        <v>1220.99</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.395500</v>
+        <v>-90.395499999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>28524.075533</v>
+        <v>28524.075532999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.923354</v>
+        <v>7.9233539999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1225.540000</v>
+        <v>1225.54</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.814300</v>
+        <v>-85.814300000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>28534.046576</v>
+        <v>28534.046576000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.926124</v>
+        <v>7.9261239999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>1232.410000</v>
+        <v>1232.4100000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.081800</v>
+        <v>-89.081800000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>28544.657490</v>
+        <v>28544.657490000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.929072</v>
+        <v>7.9290719999999997</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1240.170000</v>
+        <v>1240.17</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.003000</v>
+        <v>-101.003</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>28556.069479</v>
+        <v>28556.069479000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.932242</v>
+        <v>7.9322419999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.345000</v>
+        <v>-120.345</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>28567.109893</v>
+        <v>28567.109893000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>7.935308</v>
       </c>
       <c r="BA10" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.832000</v>
+        <v>-137.83199999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>28578.046182</v>
+        <v>28578.046181999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.938346</v>
+        <v>7.9383460000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.142000</v>
+        <v>-220.142</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>28589.231463</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.941453</v>
+        <v>7.9414530000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1367.040000</v>
+        <v>1367.04</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.460000</v>
+        <v>-357.46</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>28600.517446</v>
+        <v>28600.517446000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.944588</v>
+        <v>7.9445880000000004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1481.000000</v>
+        <v>1481</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-581.388000</v>
+        <v>-581.38800000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>28611.221130</v>
+        <v>28611.221130000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.947561</v>
+        <v>7.9475610000000003</v>
       </c>
       <c r="BU10" s="1">
-        <v>1612.100000</v>
+        <v>1612.1</v>
       </c>
       <c r="BV10" s="1">
-        <v>-834.429000</v>
+        <v>-834.42899999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>28622.392027</v>
+        <v>28622.392027000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.950664</v>
+        <v>7.9506639999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1764.670000</v>
+        <v>1764.67</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1110.190000</v>
+        <v>-1110.19</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>28634.196283</v>
+        <v>28634.196283000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.953943</v>
+        <v>7.9539429999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>2183.890000</v>
+        <v>2183.89</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1778.380000</v>
+        <v>-1778.38</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>28462.426286</v>
+        <v>28462.426286000002</v>
       </c>
       <c r="B11" s="1">
-        <v>7.906230</v>
+        <v>7.9062299999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.940000</v>
+        <v>1149.94</v>
       </c>
       <c r="D11" s="1">
-        <v>-260.313000</v>
+        <v>-260.31299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>28472.819425</v>
+        <v>28472.819425000002</v>
       </c>
       <c r="G11" s="1">
-        <v>7.909117</v>
+        <v>7.9091170000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1171.560000</v>
+        <v>1171.56</v>
       </c>
       <c r="I11" s="1">
-        <v>-218.602000</v>
+        <v>-218.602</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>28483.296916</v>
+        <v>28483.296915999999</v>
       </c>
       <c r="L11" s="1">
-        <v>7.912027</v>
+        <v>7.9120270000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1199.120000</v>
+        <v>1199.1199999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.122000</v>
+        <v>-151.12200000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>28493.511097</v>
+        <v>28493.511096999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.914864</v>
+        <v>7.9148639999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>1206.690000</v>
+        <v>1206.69</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.906000</v>
+        <v>-128.90600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>28504.039608</v>
+        <v>28504.039607999999</v>
       </c>
       <c r="V11" s="1">
         <v>7.917789</v>
       </c>
       <c r="W11" s="1">
-        <v>1213.780000</v>
+        <v>1213.78</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.713000</v>
+        <v>-107.71299999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>28514.215034</v>
+        <v>28514.215034000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.920615</v>
+        <v>7.9206149999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>1221.110000</v>
+        <v>1221.1099999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.482000</v>
+        <v>-90.481999999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>28524.442541</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.923456</v>
+        <v>7.9234559999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1225.490000</v>
+        <v>1225.49</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.831600</v>
+        <v>-85.831599999999995</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>28534.300049</v>
+        <v>28534.300049000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.926194</v>
+        <v>7.9261939999999997</v>
       </c>
       <c r="AL11" s="1">
-        <v>1232.380000</v>
+        <v>1232.3800000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.081000</v>
+        <v>-89.081000000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>28545.018081</v>
+        <v>28545.018080999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.929172</v>
+        <v>7.9291720000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1240.190000</v>
+        <v>1240.19</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.979000</v>
+        <v>-100.979</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>28556.437018</v>
+        <v>28556.437018000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.932344</v>
+        <v>7.9323439999999996</v>
       </c>
       <c r="AV11" s="1">
-        <v>1249.940000</v>
+        <v>1249.94</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.332000</v>
+        <v>-120.33199999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>28567.532981</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.935426</v>
+        <v>7.9354259999999996</v>
       </c>
       <c r="BA11" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.818000</v>
+        <v>-137.81800000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>28578.458853</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.938461</v>
+        <v>7.9384610000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.118000</v>
+        <v>-220.11799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>28589.578662</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.941550</v>
+        <v>7.9415500000000003</v>
       </c>
       <c r="BK11" s="1">
-        <v>1367.040000</v>
+        <v>1367.04</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.503000</v>
+        <v>-357.50299999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>28600.935592</v>
+        <v>28600.935592000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.944704</v>
+        <v>7.9447039999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1481.000000</v>
+        <v>1481</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-581.431000</v>
+        <v>-581.43100000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>28611.635753</v>
+        <v>28611.635752999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.947677</v>
+        <v>7.9476769999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1612.240000</v>
+        <v>1612.24</v>
       </c>
       <c r="BV11" s="1">
-        <v>-834.182000</v>
+        <v>-834.18200000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>28622.820571</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.950783</v>
+        <v>7.9507830000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1764.650000</v>
+        <v>1764.65</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1110.160000</v>
+        <v>-1110.1600000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>28634.715098</v>
+        <v>28634.715098000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.954088</v>
+        <v>7.9540879999999996</v>
       </c>
       <c r="CE11" s="1">
-        <v>2181.580000</v>
+        <v>2181.58</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1779.150000</v>
+        <v>-1779.15</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>28462.769486</v>
+        <v>28462.769486000001</v>
       </c>
       <c r="B12" s="1">
-        <v>7.906325</v>
+        <v>7.9063249999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1150.160000</v>
+        <v>1150.1600000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-260.350000</v>
+        <v>-260.35000000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>28473.164640</v>
+        <v>28473.164639999999</v>
       </c>
       <c r="G12" s="1">
-        <v>7.909212</v>
+        <v>7.9092120000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1171.630000</v>
+        <v>1171.6300000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-218.675000</v>
+        <v>-218.67500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>28483.644611</v>
       </c>
       <c r="L12" s="1">
-        <v>7.912124</v>
+        <v>7.9121240000000004</v>
       </c>
       <c r="M12" s="1">
-        <v>1198.970000</v>
+        <v>1198.97</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.095000</v>
+        <v>-151.095</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>28494.168725</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.915047</v>
+        <v>7.9150470000000004</v>
       </c>
       <c r="R12" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.845000</v>
+        <v>-128.845</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>28504.407639</v>
+        <v>28504.407639000001</v>
       </c>
       <c r="V12" s="1">
         <v>7.917891</v>
       </c>
       <c r="W12" s="1">
-        <v>1213.840000</v>
+        <v>1213.8399999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.703000</v>
+        <v>-107.703</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>28514.591002</v>
+        <v>28514.591002000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.920720</v>
+        <v>7.9207200000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1221.010000</v>
+        <v>1221.01</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.320200</v>
+        <v>-90.3202</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>28524.793708</v>
+        <v>28524.793708000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.923554</v>
+        <v>7.9235540000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>1225.590000</v>
+        <v>1225.5899999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.899700</v>
+        <v>-85.899699999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>28534.646240</v>
+        <v>28534.646239999998</v>
       </c>
       <c r="AK12" s="1">
         <v>7.926291</v>
       </c>
       <c r="AL12" s="1">
-        <v>1232.420000</v>
+        <v>1232.42</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.079200</v>
+        <v>-89.0792</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>28545.376690</v>
+        <v>28545.376690000001</v>
       </c>
       <c r="AP12" s="1">
         <v>7.929271</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1240.180000</v>
+        <v>1240.18</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.961000</v>
+        <v>-100.961</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>28556.864530</v>
+        <v>28556.864529999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.932462</v>
+        <v>7.9324620000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1249.940000</v>
+        <v>1249.94</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.318000</v>
+        <v>-120.318</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>28567.828136</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.935508</v>
+        <v>7.9355079999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>1258.280000</v>
+        <v>1258.28</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.827000</v>
+        <v>-137.827</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>28578.769349</v>
+        <v>28578.769348999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.938547</v>
+        <v>7.9385469999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1297.880000</v>
+        <v>1297.8800000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.153000</v>
+        <v>-220.15299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>28589.955162</v>
+        <v>28589.955161999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.941654</v>
+        <v>7.9416539999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1367.060000</v>
+        <v>1367.06</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.521000</v>
+        <v>-357.52100000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>28601.334655</v>
+        <v>28601.334654999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.944815</v>
+        <v>7.9448150000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1480.960000</v>
+        <v>1480.96</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-581.415000</v>
+        <v>-581.41499999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>28612.047930</v>
+        <v>28612.047930000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.947791</v>
+        <v>7.9477909999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>1612.450000</v>
+        <v>1612.45</v>
       </c>
       <c r="BV12" s="1">
-        <v>-834.156000</v>
+        <v>-834.15599999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>28623.247626</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.950902</v>
+        <v>7.9509020000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1764.800000</v>
+        <v>1764.8</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1110.000000</v>
+        <v>-1110</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>28635.230475</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.954231</v>
+        <v>7.9542310000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2182.630000</v>
+        <v>2182.63</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1781.370000</v>
+        <v>-1781.37</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>28463.112734</v>
+        <v>28463.112733999998</v>
       </c>
       <c r="B13" s="1">
-        <v>7.906420</v>
+        <v>7.9064199999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.750000</v>
+        <v>1149.75</v>
       </c>
       <c r="D13" s="1">
-        <v>-260.103000</v>
+        <v>-260.10300000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>28473.833247</v>
+        <v>28473.833246999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7.909398</v>
+        <v>7.9093980000000004</v>
       </c>
       <c r="H13" s="1">
-        <v>1171.460000</v>
+        <v>1171.46</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.655000</v>
+        <v>-218.655</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>28484.330082</v>
       </c>
       <c r="L13" s="1">
-        <v>7.912314</v>
+        <v>7.9123140000000003</v>
       </c>
       <c r="M13" s="1">
-        <v>1199.070000</v>
+        <v>1199.07</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.981000</v>
+        <v>-150.98099999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>28494.555109</v>
+        <v>28494.555109000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.915154</v>
+        <v>7.9151540000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1206.640000</v>
+        <v>1206.6400000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.865000</v>
+        <v>-128.86500000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>28504.751367</v>
+        <v>28504.751367000001</v>
       </c>
       <c r="V13" s="1">
         <v>7.917986</v>
       </c>
       <c r="W13" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.751000</v>
+        <v>-107.751</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>28514.940682</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.920817</v>
+        <v>7.9208170000000004</v>
       </c>
       <c r="AB13" s="1">
-        <v>1220.870000</v>
+        <v>1220.8699999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.458700</v>
+        <v>-90.458699999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>28525.133964</v>
+        <v>28525.133964000001</v>
       </c>
       <c r="AF13" s="1">
         <v>7.923648</v>
       </c>
       <c r="AG13" s="1">
-        <v>1225.500000</v>
+        <v>1225.5</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.820600</v>
+        <v>-85.820599999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>28535.064366</v>
+        <v>28535.064365999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.926407</v>
+        <v>7.9264070000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1232.410000</v>
+        <v>1232.4100000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.078600</v>
+        <v>-89.078599999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>28545.802752</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.929390</v>
+        <v>7.9293899999999997</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1240.180000</v>
+        <v>1240.18</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.968000</v>
+        <v>-100.968</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>28557.163655</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.932545</v>
+        <v>7.9325450000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.305000</v>
+        <v>-120.30500000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>28568.188691</v>
+        <v>28568.188690999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.935608</v>
+        <v>7.9356080000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1258.270000</v>
+        <v>1258.27</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.831000</v>
+        <v>-137.83099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>28579.131926</v>
+        <v>28579.131925999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.938648</v>
+        <v>7.9386479999999997</v>
       </c>
       <c r="BF13" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.135000</v>
+        <v>-220.13499999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>28590.333574</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.941759</v>
+        <v>7.9417590000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1367.030000</v>
+        <v>1367.03</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.470000</v>
+        <v>-357.47</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>28601.769830</v>
+        <v>28601.769830000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.944936</v>
+        <v>7.9449360000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1480.980000</v>
+        <v>1480.98</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-581.418000</v>
+        <v>-581.41800000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>28612.471546</v>
+        <v>28612.471546000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.947909</v>
+        <v>7.9479090000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1612.580000</v>
+        <v>1612.58</v>
       </c>
       <c r="BV13" s="1">
-        <v>-833.971000</v>
+        <v>-833.971</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>28623.684569</v>
+        <v>28623.684569000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.951023</v>
+        <v>7.9510230000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1764.640000</v>
+        <v>1764.64</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1110.020000</v>
+        <v>-1110.02</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>28635.752731</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.954376</v>
+        <v>7.9543759999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2184.290000</v>
+        <v>2184.29</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1780.500000</v>
+        <v>-1780.5</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>28463.764493</v>
+        <v>28463.764492999999</v>
       </c>
       <c r="B14" s="1">
-        <v>7.906601</v>
+        <v>7.9066010000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.480000</v>
+        <v>1149.48</v>
       </c>
       <c r="D14" s="1">
-        <v>-260.134000</v>
+        <v>-260.13400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>28474.203279</v>
+        <v>28474.203279000001</v>
       </c>
       <c r="G14" s="1">
-        <v>7.909501</v>
+        <v>7.9095009999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>1171.870000</v>
+        <v>1171.8699999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-218.737000</v>
+        <v>-218.73699999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>28484.676786</v>
       </c>
       <c r="L14" s="1">
-        <v>7.912410</v>
+        <v>7.9124100000000004</v>
       </c>
       <c r="M14" s="1">
-        <v>1198.900000</v>
+        <v>1198.9000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.240000</v>
+        <v>-151.24</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>28494.904292</v>
+        <v>28494.904291999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.915251</v>
+        <v>7.9152509999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1206.740000</v>
+        <v>1206.74</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.843000</v>
+        <v>-128.84299999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>28505.098072</v>
+        <v>28505.098072000001</v>
       </c>
       <c r="V14" s="1">
-        <v>7.918083</v>
+        <v>7.9180830000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1213.860000</v>
+        <v>1213.8599999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.714000</v>
+        <v>-107.714</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>28515.289370</v>
+        <v>28515.289369999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.920914</v>
+        <v>7.9209139999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>1221.010000</v>
+        <v>1221.01</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.249800</v>
+        <v>-90.249799999999993</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>28525.555100</v>
+        <v>28525.555100000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.923765</v>
+        <v>7.9237650000000004</v>
       </c>
       <c r="AG14" s="1">
-        <v>1225.570000</v>
+        <v>1225.57</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.819700</v>
+        <v>-85.819699999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>28535.347086</v>
+        <v>28535.347086000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.926485</v>
+        <v>7.9264849999999996</v>
       </c>
       <c r="AL14" s="1">
-        <v>1232.460000</v>
+        <v>1232.46</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.064000</v>
+        <v>-89.063999999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>28546.100352</v>
+        <v>28546.100352000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.929472</v>
+        <v>7.9294719999999996</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1240.200000</v>
+        <v>1240.2</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.967000</v>
+        <v>-100.967</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>28557.530193</v>
+        <v>28557.530192999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.932647</v>
+        <v>7.9326470000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.332000</v>
+        <v>-120.33199999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>28568.546308</v>
+        <v>28568.546308000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.935707</v>
+        <v>7.9357069999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.851000</v>
+        <v>-137.851</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>28579.491524</v>
+        <v>28579.491524000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.938748</v>
+        <v>7.9387480000000004</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.880000</v>
+        <v>1297.8800000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.131000</v>
+        <v>-220.131</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>28591.081542</v>
@@ -3745,315 +4161,315 @@
         <v>7.941967</v>
       </c>
       <c r="BK14" s="1">
-        <v>1367.080000</v>
+        <v>1367.08</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.480000</v>
+        <v>-357.48</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>28602.149270</v>
+        <v>28602.149270000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.945041</v>
+        <v>7.9450409999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1481.020000</v>
+        <v>1481.02</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-581.443000</v>
+        <v>-581.44299999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>28612.877240</v>
+        <v>28612.877240000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.948021</v>
+        <v>7.9480209999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1612.900000</v>
+        <v>1612.9</v>
       </c>
       <c r="BV14" s="1">
-        <v>-834.033000</v>
+        <v>-834.03300000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>28624.106169</v>
+        <v>28624.106168999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.951141</v>
+        <v>7.9511409999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1764.820000</v>
+        <v>1764.82</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1110.120000</v>
+        <v>-1110.1199999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>28636.584061</v>
+        <v>28636.584061000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.954607</v>
+        <v>7.9546070000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>2183.380000</v>
+        <v>2183.38</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1778.980000</v>
+        <v>-1778.98</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>28464.137452</v>
+        <v>28464.137451999999</v>
       </c>
       <c r="B15" s="1">
-        <v>7.906705</v>
+        <v>7.9067049999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>1150.000000</v>
+        <v>1150</v>
       </c>
       <c r="D15" s="1">
-        <v>-260.169000</v>
+        <v>-260.16899999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>28474.546495</v>
+        <v>28474.546494999999</v>
       </c>
       <c r="G15" s="1">
-        <v>7.909596</v>
+        <v>7.9095959999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>1171.170000</v>
+        <v>1171.17</v>
       </c>
       <c r="I15" s="1">
-        <v>-218.414000</v>
+        <v>-218.41399999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>28485.020513</v>
+        <v>28485.020512999999</v>
       </c>
       <c r="L15" s="1">
-        <v>7.912506</v>
+        <v>7.9125059999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>1198.940000</v>
+        <v>1198.94</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.044000</v>
+        <v>-151.04400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>28495.253008</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.915348</v>
+        <v>7.9153479999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1206.760000</v>
+        <v>1206.76</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.861000</v>
+        <v>-128.86099999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>28505.523142</v>
+        <v>28505.523141999998</v>
       </c>
       <c r="V15" s="1">
-        <v>7.918201</v>
+        <v>7.9182009999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1213.780000</v>
+        <v>1213.78</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.680000</v>
+        <v>-107.68</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>28515.717447</v>
+        <v>28515.717446999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.921033</v>
+        <v>7.9210330000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>1221.130000</v>
+        <v>1221.1300000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.429100</v>
+        <v>-90.429100000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>28525.832828</v>
+        <v>28525.832827999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.923842</v>
+        <v>7.9238419999999996</v>
       </c>
       <c r="AG15" s="1">
-        <v>1225.540000</v>
+        <v>1225.54</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.839800</v>
+        <v>-85.839799999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>28535.695277</v>
+        <v>28535.695276999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.926582</v>
+        <v>7.9265819999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>1232.430000</v>
+        <v>1232.43</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.076800</v>
+        <v>-89.076800000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>28546.460448</v>
+        <v>28546.460448000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.929572</v>
+        <v>7.9295720000000003</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1240.170000</v>
+        <v>1240.17</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.971000</v>
+        <v>-100.971</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>28557.892267</v>
+        <v>28557.892266999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.932748</v>
+        <v>7.9327480000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.315000</v>
+        <v>-120.315</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>28569.263025</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.935906</v>
+        <v>7.9359060000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1258.280000</v>
+        <v>1258.28</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.828000</v>
+        <v>-137.828</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>28580.219944</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.938950</v>
+        <v>7.9389500000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.145000</v>
+        <v>-220.14500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>28591.456021</v>
+        <v>28591.456021000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.942071</v>
+        <v>7.9420710000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1367.080000</v>
+        <v>1367.08</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.471000</v>
+        <v>-357.471</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>28602.567740</v>
+        <v>28602.567739999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.945158</v>
+        <v>7.9451580000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1481.040000</v>
+        <v>1481.04</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-581.374000</v>
+        <v>-581.37400000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>28613.288919</v>
+        <v>28613.288918999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>7.948136</v>
+        <v>7.9481359999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1613.040000</v>
+        <v>1613.04</v>
       </c>
       <c r="BV15" s="1">
-        <v>-834.112000</v>
+        <v>-834.11199999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>28624.836279</v>
+        <v>28624.836278999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.951343</v>
+        <v>7.9513429999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1764.720000</v>
+        <v>1764.72</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1110.280000</v>
+        <v>-1110.28</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>28636.788376</v>
@@ -4062,120 +4478,120 @@
         <v>7.954663</v>
       </c>
       <c r="CE15" s="1">
-        <v>2181.500000</v>
+        <v>2181.5</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1780.360000</v>
+        <v>-1780.36</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>28464.480366</v>
       </c>
       <c r="B16" s="1">
-        <v>7.906800</v>
+        <v>7.9067999999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.970000</v>
+        <v>1149.97</v>
       </c>
       <c r="D16" s="1">
-        <v>-260.358000</v>
+        <v>-260.358</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>28474.894189</v>
+        <v>28474.894188999999</v>
       </c>
       <c r="G16" s="1">
-        <v>7.909693</v>
+        <v>7.9096929999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1170.620000</v>
+        <v>1170.6199999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-217.656000</v>
+        <v>-217.65600000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>28485.437152</v>
+        <v>28485.437151999999</v>
       </c>
       <c r="L16" s="1">
-        <v>7.912621</v>
+        <v>7.9126209999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>1198.870000</v>
+        <v>1198.8699999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.274000</v>
+        <v>-151.274</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>28495.672130</v>
+        <v>28495.672129999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.915464</v>
+        <v>7.9154640000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.908000</v>
+        <v>-128.90799999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>28505.790981</v>
+        <v>28505.790980999998</v>
       </c>
       <c r="V16" s="1">
-        <v>7.918275</v>
+        <v>7.9182750000000004</v>
       </c>
       <c r="W16" s="1">
-        <v>1213.800000</v>
+        <v>1213.8</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.747000</v>
+        <v>-107.747</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>28516.001164</v>
+        <v>28516.001164000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.921111</v>
+        <v>7.9211109999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1221.050000</v>
+        <v>1221.05</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.440600</v>
+        <v>-90.440600000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>28526.176554</v>
+        <v>28526.176554000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.923938</v>
+        <v>7.9239379999999997</v>
       </c>
       <c r="AG16" s="1">
-        <v>1225.560000</v>
+        <v>1225.56</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.854400</v>
+        <v>-85.854399999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>28536.043469</v>
@@ -4184,784 +4600,784 @@
         <v>7.926679</v>
       </c>
       <c r="AL16" s="1">
-        <v>1232.430000</v>
+        <v>1232.43</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.073300</v>
+        <v>-89.073300000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>28546.821073</v>
+        <v>28546.821072999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.929673</v>
+        <v>7.9296730000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1240.170000</v>
+        <v>1240.17</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.991000</v>
+        <v>-100.991</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>28558.624864</v>
+        <v>28558.624864000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.932951</v>
+        <v>7.9329510000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.340000</v>
+        <v>-120.34</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>28569.623651</v>
+        <v>28569.623651000002</v>
       </c>
       <c r="AZ16" s="1">
         <v>7.936007</v>
       </c>
       <c r="BA16" s="1">
-        <v>1258.290000</v>
+        <v>1258.29</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.822000</v>
+        <v>-137.822</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>28580.601570</v>
+        <v>28580.601569999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.939056</v>
+        <v>7.9390559999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.144000</v>
+        <v>-220.14400000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>28591.831491</v>
+        <v>28591.831491000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.942175</v>
+        <v>7.9421749999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1367.030000</v>
+        <v>1367.03</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.458000</v>
+        <v>-357.45800000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>28603.281636</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.945356</v>
+        <v>7.9453560000000003</v>
       </c>
       <c r="BP16" s="1">
-        <v>1480.990000</v>
+        <v>1480.99</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-581.391000</v>
+        <v>-581.39099999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>28614.015062</v>
+        <v>28614.015061999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.948338</v>
+        <v>7.9483379999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>1613.210000</v>
+        <v>1613.21</v>
       </c>
       <c r="BV16" s="1">
-        <v>-834.405000</v>
+        <v>-834.40499999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>28625.007933</v>
+        <v>28625.007933000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.951391</v>
+        <v>7.9513910000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1764.570000</v>
+        <v>1764.57</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1110.110000</v>
+        <v>-1110.1099999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>28637.304751</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.954807</v>
+        <v>7.9548069999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>2181.450000</v>
+        <v>2181.4499999999998</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1779.340000</v>
+        <v>-1779.34</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>28464.825931</v>
+        <v>28464.825930999999</v>
       </c>
       <c r="B17" s="1">
-        <v>7.906896</v>
+        <v>7.9068959999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D17" s="1">
-        <v>-260.211000</v>
+        <v>-260.21100000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>28475.317807</v>
+        <v>28475.317806999999</v>
       </c>
       <c r="G17" s="1">
-        <v>7.909811</v>
+        <v>7.9098110000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>1172.010000</v>
+        <v>1172.01</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.210000</v>
+        <v>-218.21</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>28485.716438</v>
+        <v>28485.716437999999</v>
       </c>
       <c r="L17" s="1">
-        <v>7.912699</v>
+        <v>7.9126989999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1199.030000</v>
+        <v>1199.03</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.293000</v>
+        <v>-151.29300000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>28495.949362</v>
+        <v>28495.949361999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.915541</v>
+        <v>7.9155410000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1206.720000</v>
+        <v>1206.72</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.949000</v>
+        <v>-128.94900000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>28506.133717</v>
+        <v>28506.133717000001</v>
       </c>
       <c r="V17" s="1">
-        <v>7.918370</v>
+        <v>7.9183700000000004</v>
       </c>
       <c r="W17" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.709000</v>
+        <v>-107.709</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>28516.349816</v>
+        <v>28516.349816000002</v>
       </c>
       <c r="AA17" s="1">
         <v>7.921208</v>
       </c>
       <c r="AB17" s="1">
-        <v>1221.080000</v>
+        <v>1221.08</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.355000</v>
+        <v>-90.355000000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>28526.520778</v>
+        <v>28526.520777999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.924034</v>
+        <v>7.9240339999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1225.500000</v>
+        <v>1225.5</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.782100</v>
+        <v>-85.7821</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>28536.740582</v>
+        <v>28536.740581999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.926872</v>
+        <v>7.9268720000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>1232.430000</v>
+        <v>1232.43</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.083700</v>
+        <v>-89.083699999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>28547.539743</v>
+        <v>28547.539743000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.929872</v>
+        <v>7.9298719999999996</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1240.180000</v>
+        <v>1240.18</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.974000</v>
+        <v>-100.974</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>28559.011215</v>
+        <v>28559.011214999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.933059</v>
+        <v>7.9330590000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.333000</v>
+        <v>-120.333</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>28569.981760</v>
+        <v>28569.981759999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.936106</v>
+        <v>7.9361059999999997</v>
       </c>
       <c r="BA17" s="1">
-        <v>1258.280000</v>
+        <v>1258.28</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.872000</v>
+        <v>-137.87200000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>28580.960211</v>
+        <v>28580.960211000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.939156</v>
+        <v>7.9391559999999997</v>
       </c>
       <c r="BF17" s="1">
-        <v>1297.860000</v>
+        <v>1297.8599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.115000</v>
+        <v>-220.11500000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>28592.509028</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.942364</v>
+        <v>7.9423640000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1367.080000</v>
+        <v>1367.08</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.440000</v>
+        <v>-357.44</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>28603.394724</v>
+        <v>28603.394724000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.945387</v>
+        <v>7.9453870000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1481.030000</v>
+        <v>1481.03</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-581.423000</v>
+        <v>-581.423</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>28614.127687</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.948369</v>
+        <v>7.9483689999999996</v>
       </c>
       <c r="BU17" s="1">
-        <v>1613.270000</v>
+        <v>1613.27</v>
       </c>
       <c r="BV17" s="1">
-        <v>-834.605000</v>
+        <v>-834.60500000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>28625.435484</v>
+        <v>28625.435484000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.951510</v>
+        <v>7.9515099999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1764.760000</v>
+        <v>1764.76</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1110.030000</v>
+        <v>-1110.03</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>28637.866679</v>
+        <v>28637.866678999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.954963</v>
+        <v>7.9549630000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>2183.990000</v>
+        <v>2183.9899999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1778.770000</v>
+        <v>-1778.77</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>28465.250971</v>
+        <v>28465.250971000001</v>
       </c>
       <c r="B18" s="1">
-        <v>7.907014</v>
+        <v>7.9070140000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.740000</v>
+        <v>1149.74</v>
       </c>
       <c r="D18" s="1">
-        <v>-260.260000</v>
+        <v>-260.26</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>28475.585613</v>
+        <v>28475.585612999999</v>
       </c>
       <c r="G18" s="1">
-        <v>7.909885</v>
+        <v>7.9098850000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1171.650000</v>
+        <v>1171.6500000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.922000</v>
+        <v>-217.922</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>28486.061120</v>
+        <v>28486.061119999998</v>
       </c>
       <c r="L18" s="1">
         <v>7.912795</v>
       </c>
       <c r="M18" s="1">
-        <v>1199.040000</v>
+        <v>1199.04</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.136000</v>
+        <v>-151.136</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>28496.301522</v>
+        <v>28496.301522000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.915639</v>
+        <v>7.9156389999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>1206.600000</v>
+        <v>1206.5999999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.901000</v>
+        <v>-128.90100000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>28506.476639</v>
       </c>
       <c r="V18" s="1">
-        <v>7.918466</v>
+        <v>7.9184659999999996</v>
       </c>
       <c r="W18" s="1">
-        <v>1213.780000</v>
+        <v>1213.78</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.730000</v>
+        <v>-107.73</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>28517.080459</v>
+        <v>28517.080459000001</v>
       </c>
       <c r="AA18" s="1">
         <v>7.921411</v>
       </c>
       <c r="AB18" s="1">
-        <v>1220.960000</v>
+        <v>1220.96</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.382900</v>
+        <v>-90.382900000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>28527.204265</v>
       </c>
       <c r="AF18" s="1">
-        <v>7.924223</v>
+        <v>7.9242229999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>1225.540000</v>
+        <v>1225.54</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.811000</v>
+        <v>-85.811000000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>28537.091020</v>
+        <v>28537.09102</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.926970</v>
+        <v>7.9269699999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>1232.410000</v>
+        <v>1232.4100000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.074500</v>
+        <v>-89.0745</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>28547.897390</v>
+        <v>28547.897389999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.929971</v>
+        <v>7.9299710000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1240.190000</v>
+        <v>1240.19</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.942000</v>
+        <v>-100.94199999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>28559.378750</v>
+        <v>28559.37875</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.933161</v>
+        <v>7.9331610000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.329000</v>
+        <v>-120.32899999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>28570.645908</v>
+        <v>28570.645907999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.936291</v>
+        <v>7.9362909999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1258.270000</v>
+        <v>1258.27</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.843000</v>
+        <v>-137.84299999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>28581.625811</v>
+        <v>28581.625811000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.939341</v>
+        <v>7.9393409999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.170000</v>
+        <v>-220.17</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>28592.956914</v>
+        <v>28592.956913999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>7.942488</v>
       </c>
       <c r="BK18" s="1">
-        <v>1367.080000</v>
+        <v>1367.08</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.459000</v>
+        <v>-357.459</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>28603.821327</v>
+        <v>28603.821327000001</v>
       </c>
       <c r="BO18" s="1">
         <v>7.945506</v>
       </c>
       <c r="BP18" s="1">
-        <v>1480.990000</v>
+        <v>1480.99</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-581.397000</v>
+        <v>-581.39700000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>28614.560661</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.948489</v>
+        <v>7.9484890000000004</v>
       </c>
       <c r="BU18" s="1">
-        <v>1613.140000</v>
+        <v>1613.14</v>
       </c>
       <c r="BV18" s="1">
-        <v>-834.840000</v>
+        <v>-834.84</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>28625.881858</v>
+        <v>28625.881858000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.951634</v>
+        <v>7.9516340000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1764.740000</v>
+        <v>1764.74</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1110.230000</v>
+        <v>-1110.23</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>28638.387511</v>
+        <v>28638.387511000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.955108</v>
+        <v>7.9551080000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2182.090000</v>
+        <v>2182.09</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1779.530000</v>
+        <v>-1779.53</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>28465.522778</v>
+        <v>28465.522777999999</v>
       </c>
       <c r="B19" s="1">
-        <v>7.907090</v>
+        <v>7.9070900000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.670000</v>
+        <v>1149.67</v>
       </c>
       <c r="D19" s="1">
-        <v>-260.272000</v>
+        <v>-260.27199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>28475.933341</v>
       </c>
       <c r="G19" s="1">
-        <v>7.909981</v>
+        <v>7.9099810000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1171.690000</v>
+        <v>1171.69</v>
       </c>
       <c r="I19" s="1">
-        <v>-218.132000</v>
+        <v>-218.13200000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>28486.406831</v>
       </c>
       <c r="L19" s="1">
-        <v>7.912891</v>
+        <v>7.9128910000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1198.770000</v>
+        <v>1198.77</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.088000</v>
+        <v>-151.08799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>28496.649219</v>
+        <v>28496.649218999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.915736</v>
+        <v>7.9157359999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1206.700000</v>
+        <v>1206.7</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.865000</v>
+        <v>-128.86500000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>28507.163412</v>
+        <v>28507.163412000002</v>
       </c>
       <c r="V19" s="1">
-        <v>7.918657</v>
+        <v>7.9186569999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>1213.800000</v>
+        <v>1213.8</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.678000</v>
+        <v>-107.678</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>28517.399885</v>
+        <v>28517.399884999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.921500</v>
+        <v>7.9215</v>
       </c>
       <c r="AB19" s="1">
-        <v>1220.920000</v>
+        <v>1220.92</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.476700</v>
+        <v>-90.476699999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>28527.549978</v>
+        <v>28527.549977999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.924319</v>
+        <v>7.9243189999999997</v>
       </c>
       <c r="AG19" s="1">
-        <v>1225.560000</v>
+        <v>1225.56</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.842600</v>
+        <v>-85.842600000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>28537.440205</v>
+        <v>28537.440204999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.927067</v>
+        <v>7.9270670000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1232.440000</v>
+        <v>1232.44</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.063900</v>
+        <v>-89.063900000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>28548.258941</v>
@@ -4970,73 +5386,73 @@
         <v>7.930072</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1240.150000</v>
+        <v>1240.1500000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.974000</v>
+        <v>-100.974</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>28560.067199</v>
+        <v>28560.067199000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.933352</v>
+        <v>7.9333520000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.341000</v>
+        <v>-120.34099999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>28571.084831</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.936412</v>
+        <v>7.9364119999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1258.250000</v>
+        <v>1258.25</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.866000</v>
+        <v>-137.86600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>28582.077169</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.939466</v>
+        <v>7.9394660000000004</v>
       </c>
       <c r="BF19" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.141000</v>
+        <v>-220.14099999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>28593.334370</v>
+        <v>28593.33437</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.942593</v>
+        <v>7.9425929999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1367.020000</v>
+        <v>1367.02</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.500000</v>
+        <v>-357.5</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>28604.212131</v>
@@ -5045,739 +5461,739 @@
         <v>7.945614</v>
       </c>
       <c r="BP19" s="1">
-        <v>1480.990000</v>
+        <v>1480.99</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-581.409000</v>
+        <v>-581.40899999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>28614.972341</v>
+        <v>28614.972341000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.948603</v>
+        <v>7.9486030000000003</v>
       </c>
       <c r="BU19" s="1">
-        <v>1612.960000</v>
+        <v>1612.96</v>
       </c>
       <c r="BV19" s="1">
-        <v>-834.970000</v>
+        <v>-834.97</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>28626.315846</v>
+        <v>28626.315846000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.951754</v>
+        <v>7.9517540000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1764.590000</v>
+        <v>1764.59</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1110.260000</v>
+        <v>-1110.26</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>28638.904341</v>
+        <v>28638.904341000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.955251</v>
+        <v>7.9552509999999996</v>
       </c>
       <c r="CE19" s="1">
-        <v>2182.310000</v>
+        <v>2182.31</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1778.900000</v>
+        <v>-1778.9</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>28465.863397</v>
+        <v>28465.863397000001</v>
       </c>
       <c r="B20" s="1">
         <v>7.907184</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.950000</v>
+        <v>1149.95</v>
       </c>
       <c r="D20" s="1">
-        <v>-260.289000</v>
+        <v>-260.28899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>28476.278028</v>
+        <v>28476.278028000001</v>
       </c>
       <c r="G20" s="1">
-        <v>7.910077</v>
+        <v>7.9100770000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1171.710000</v>
+        <v>1171.71</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.414000</v>
+        <v>-218.41399999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>28487.100270</v>
+        <v>28487.100269999999</v>
       </c>
       <c r="L20" s="1">
-        <v>7.913083</v>
+        <v>7.9130830000000003</v>
       </c>
       <c r="M20" s="1">
-        <v>1198.650000</v>
+        <v>1198.6500000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.064000</v>
+        <v>-151.06399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>28497.344609</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.915929</v>
+        <v>7.9159290000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1206.760000</v>
+        <v>1206.76</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.864000</v>
+        <v>-128.864</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>28507.512638</v>
       </c>
       <c r="V20" s="1">
-        <v>7.918754</v>
+        <v>7.9187539999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.584000</v>
+        <v>-107.584</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>28517.741601</v>
+        <v>28517.741601000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.921595</v>
+        <v>7.9215949999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1220.970000</v>
+        <v>1220.97</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.435500</v>
+        <v>-90.435500000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>28527.895192</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.924415</v>
+        <v>7.9244149999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1225.540000</v>
+        <v>1225.54</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.842600</v>
+        <v>-85.842600000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>28538.094954</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.927249</v>
+        <v>7.9272489999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1232.440000</v>
+        <v>1232.44</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.067300</v>
+        <v>-89.067300000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>28548.930065</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.930258</v>
+        <v>7.9302580000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1240.190000</v>
+        <v>1240.19</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.962000</v>
+        <v>-100.962</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>28560.496764</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.933471</v>
+        <v>7.9334709999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.319000</v>
+        <v>-120.319</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>28571.445423</v>
+        <v>28571.445423000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.936513</v>
+        <v>7.9365129999999997</v>
       </c>
       <c r="BA20" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.840000</v>
+        <v>-137.84</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>28582.438752</v>
+        <v>28582.438751999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.939566</v>
+        <v>7.9395660000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.132000</v>
+        <v>-220.13200000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>28593.708353</v>
+        <v>28593.708353000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.942697</v>
+        <v>7.9426969999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1367.040000</v>
+        <v>1367.04</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.476000</v>
+        <v>-357.476</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>28604.633741</v>
+        <v>28604.633741000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.945732</v>
+        <v>7.9457319999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1481.030000</v>
+        <v>1481.03</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-581.394000</v>
+        <v>-581.39400000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>28615.414773</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.948726</v>
+        <v>7.9487259999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1612.750000</v>
+        <v>1612.75</v>
       </c>
       <c r="BV20" s="1">
-        <v>-835.011000</v>
+        <v>-835.01099999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>28626.737973</v>
+        <v>28626.737972999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.951872</v>
+        <v>7.9518719999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1764.710000</v>
+        <v>1764.71</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1110.220000</v>
+        <v>-1110.22</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>28639.454879</v>
+        <v>28639.454879000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.955404</v>
+        <v>7.9554039999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>2184.440000</v>
+        <v>2184.44</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1779.660000</v>
+        <v>-1779.66</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>28466.204778</v>
+        <v>28466.204777999999</v>
       </c>
       <c r="B21" s="1">
-        <v>7.907279</v>
+        <v>7.9072789999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.820000</v>
+        <v>1149.82</v>
       </c>
       <c r="D21" s="1">
-        <v>-260.358000</v>
+        <v>-260.358</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>28476.970939</v>
+        <v>28476.970938999999</v>
       </c>
       <c r="G21" s="1">
-        <v>7.910270</v>
+        <v>7.9102699999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>1172.110000</v>
+        <v>1172.1099999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.546000</v>
+        <v>-218.54599999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>28487.443965</v>
+        <v>28487.443964999999</v>
       </c>
       <c r="L21" s="1">
-        <v>7.913179</v>
+        <v>7.9131790000000004</v>
       </c>
       <c r="M21" s="1">
-        <v>1199.050000</v>
+        <v>1199.05</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.243000</v>
+        <v>-151.24299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>28497.693914</v>
+        <v>28497.693913999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.916026</v>
+        <v>7.9160259999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>1206.750000</v>
+        <v>1206.75</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.937000</v>
+        <v>-128.93700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>28507.842435</v>
+        <v>28507.842434999999</v>
       </c>
       <c r="V21" s="1">
-        <v>7.918845</v>
+        <v>7.9188450000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1213.820000</v>
+        <v>1213.82</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.728000</v>
+        <v>-107.72799999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>28518.398788</v>
+        <v>28518.398787999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.921777</v>
+        <v>7.9217769999999996</v>
       </c>
       <c r="AB21" s="1">
-        <v>1221.100000</v>
+        <v>1221.0999999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.398700</v>
+        <v>-90.398700000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>28528.555367</v>
+        <v>28528.555367000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.924599</v>
+        <v>7.9245989999999997</v>
       </c>
       <c r="AG21" s="1">
-        <v>1225.490000</v>
+        <v>1225.49</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.847500</v>
+        <v>-85.847499999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>28538.482298</v>
+        <v>28538.482297999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.927356</v>
+        <v>7.9273559999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>1232.410000</v>
+        <v>1232.4100000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.088400</v>
+        <v>-89.088399999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>28549.368988</v>
+        <v>28549.368987999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.930380</v>
+        <v>7.9303800000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1240.170000</v>
+        <v>1240.17</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.992000</v>
+        <v>-100.992</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>28560.863773</v>
+        <v>28560.863773000001</v>
       </c>
       <c r="AU21" s="1">
         <v>7.933573</v>
       </c>
       <c r="AV21" s="1">
-        <v>1249.920000</v>
+        <v>1249.92</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.312000</v>
+        <v>-120.312</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>28571.805054</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.936613</v>
+        <v>7.9366130000000004</v>
       </c>
       <c r="BA21" s="1">
-        <v>1258.270000</v>
+        <v>1258.27</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.853000</v>
+        <v>-137.85300000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>28582.798847</v>
+        <v>28582.798846999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.939666</v>
+        <v>7.9396659999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1297.880000</v>
+        <v>1297.8800000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.151000</v>
+        <v>-220.15100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>28594.133425</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.942815</v>
+        <v>7.9428150000000004</v>
       </c>
       <c r="BK21" s="1">
-        <v>1367.070000</v>
+        <v>1367.07</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.500000</v>
+        <v>-357.5</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>28605.028050</v>
+        <v>28605.028050000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.945841</v>
+        <v>7.9458409999999997</v>
       </c>
       <c r="BP21" s="1">
-        <v>1481.070000</v>
+        <v>1481.07</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-581.435000</v>
+        <v>-581.43499999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>28615.803141</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.948834</v>
+        <v>7.9488339999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>1612.420000</v>
+        <v>1612.42</v>
       </c>
       <c r="BV21" s="1">
-        <v>-834.842000</v>
+        <v>-834.84199999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>28627.157557</v>
+        <v>28627.157556999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.951988</v>
+        <v>7.9519880000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1764.560000</v>
+        <v>1764.56</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1110.170000</v>
+        <v>-1110.17</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>28639.989059</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.955553</v>
+        <v>7.9555530000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>2182.570000</v>
+        <v>2182.5700000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1779.110000</v>
+        <v>-1779.11</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>28466.886778</v>
       </c>
       <c r="B22" s="1">
-        <v>7.907469</v>
+        <v>7.9074689999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.800000</v>
+        <v>1149.8</v>
       </c>
       <c r="D22" s="1">
-        <v>-260.548000</v>
+        <v>-260.548</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>28477.317147</v>
+        <v>28477.317147000002</v>
       </c>
       <c r="G22" s="1">
-        <v>7.910366</v>
+        <v>7.9103659999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>1171.490000</v>
+        <v>1171.49</v>
       </c>
       <c r="I22" s="1">
-        <v>-218.288000</v>
+        <v>-218.28800000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>28487.790205</v>
+        <v>28487.790205000001</v>
       </c>
       <c r="L22" s="1">
-        <v>7.913275</v>
+        <v>7.9132749999999996</v>
       </c>
       <c r="M22" s="1">
-        <v>1199.050000</v>
+        <v>1199.05</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.236000</v>
+        <v>-151.23599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>28498.043472</v>
+        <v>28498.043472000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.916123</v>
+        <v>7.9161229999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1206.690000</v>
+        <v>1206.69</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.982000</v>
+        <v>-128.982</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>28508.503106</v>
       </c>
       <c r="V22" s="1">
-        <v>7.919029</v>
+        <v>7.9190290000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1213.820000</v>
+        <v>1213.82</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.724000</v>
+        <v>-107.724</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>28518.785702</v>
+        <v>28518.785702000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.921885</v>
+        <v>7.9218849999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>1221.060000</v>
+        <v>1221.06</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.405800</v>
+        <v>-90.405799999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>28528.929350</v>
+        <v>28528.929349999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.924703</v>
+        <v>7.9247030000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1225.530000</v>
+        <v>1225.53</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.811200</v>
+        <v>-85.811199999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>28538.831481</v>
+        <v>28538.831481000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.927453</v>
+        <v>7.9274529999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1232.410000</v>
+        <v>1232.4100000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.078600</v>
+        <v>-89.078599999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>28549.726109</v>
+        <v>28549.726108999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.930479</v>
+        <v>7.9304790000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1240.170000</v>
+        <v>1240.17</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.959000</v>
+        <v>-100.959</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>28561.226348</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.933674</v>
+        <v>7.9336739999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.328000</v>
+        <v>-120.328</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>28572.218719</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.936727</v>
+        <v>7.9367270000000003</v>
       </c>
       <c r="BA22" s="1">
-        <v>1258.260000</v>
+        <v>1258.26</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.851000</v>
+        <v>-137.851</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>28583.258147</v>
@@ -5786,829 +6202,829 @@
         <v>7.939794</v>
       </c>
       <c r="BF22" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.132000</v>
+        <v>-220.13200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>28594.475691</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.942910</v>
+        <v>7.9429100000000004</v>
       </c>
       <c r="BK22" s="1">
-        <v>1367.080000</v>
+        <v>1367.08</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.518000</v>
+        <v>-357.51799999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>28605.455106</v>
+        <v>28605.455106000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.945960</v>
+        <v>7.9459600000000004</v>
       </c>
       <c r="BP22" s="1">
-        <v>1480.990000</v>
+        <v>1480.99</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-581.445000</v>
+        <v>-581.44500000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>28616.219284</v>
+        <v>28616.219283999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.948950</v>
+        <v>7.94895</v>
       </c>
       <c r="BU22" s="1">
-        <v>1612.270000</v>
+        <v>1612.27</v>
       </c>
       <c r="BV22" s="1">
-        <v>-834.908000</v>
+        <v>-834.90800000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>28627.582356</v>
+        <v>28627.582355999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.952106</v>
+        <v>7.9521059999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1764.680000</v>
+        <v>1764.68</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1110.180000</v>
+        <v>-1110.18</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>28640.504405</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.955696</v>
+        <v>7.9556959999999997</v>
       </c>
       <c r="CE22" s="1">
-        <v>2182.610000</v>
+        <v>2182.61</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1781.140000</v>
+        <v>-1781.14</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>28467.238441</v>
+        <v>28467.238441000001</v>
       </c>
       <c r="B23" s="1">
-        <v>7.907566</v>
+        <v>7.9075660000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.750000</v>
+        <v>1149.75</v>
       </c>
       <c r="D23" s="1">
-        <v>-260.375000</v>
+        <v>-260.375</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>28477.663851</v>
+        <v>28477.663851000001</v>
       </c>
       <c r="G23" s="1">
-        <v>7.910462</v>
+        <v>7.9104619999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1170.860000</v>
+        <v>1170.8599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-218.655000</v>
+        <v>-218.655</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>28488.444396</v>
+        <v>28488.444395999999</v>
       </c>
       <c r="L23" s="1">
-        <v>7.913457</v>
+        <v>7.9134570000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1198.860000</v>
+        <v>1198.8599999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.404000</v>
+        <v>-151.404</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>28498.708112</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.916308</v>
+        <v>7.9163079999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1206.620000</v>
+        <v>1206.6199999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.868000</v>
+        <v>-128.86799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>28508.883043</v>
+        <v>28508.883043000002</v>
       </c>
       <c r="V23" s="1">
-        <v>7.919134</v>
+        <v>7.9191339999999997</v>
       </c>
       <c r="W23" s="1">
-        <v>1213.860000</v>
+        <v>1213.8599999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.620000</v>
+        <v>-107.62</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>28519.133363</v>
+        <v>28519.133363000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.921981</v>
+        <v>7.9219809999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>1221.130000</v>
+        <v>1221.1300000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.457800</v>
+        <v>-90.457800000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>28529.279062</v>
+        <v>28529.279062000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.924800</v>
+        <v>7.9248000000000003</v>
       </c>
       <c r="AG23" s="1">
-        <v>1225.530000</v>
+        <v>1225.53</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.831000</v>
+        <v>-85.831000000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>28539.179673</v>
+        <v>28539.179672999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.927550</v>
+        <v>7.9275500000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1232.410000</v>
+        <v>1232.4100000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.081100</v>
+        <v>-89.081100000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>28550.085708</v>
+        <v>28550.085707999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.930579</v>
+        <v>7.9305789999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1240.160000</v>
+        <v>1240.1600000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.991000</v>
+        <v>-100.991</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>28561.659885</v>
+        <v>28561.659885000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.933794</v>
+        <v>7.9337939999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.327000</v>
+        <v>-120.327</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>28572.521254</v>
+        <v>28572.521253999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.936811</v>
+        <v>7.9368109999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1258.280000</v>
+        <v>1258.28</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.889000</v>
+        <v>-137.88900000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>28583.555775</v>
+        <v>28583.555775000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.939877</v>
+        <v>7.9398770000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.140000</v>
+        <v>-220.14</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>28594.855103</v>
+        <v>28594.855103000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.943015</v>
+        <v>7.9430149999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1367.100000</v>
+        <v>1367.1</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.458000</v>
+        <v>-357.45800000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>28605.846481</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.946068</v>
+        <v>7.9460680000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1481.030000</v>
+        <v>1481.03</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-581.427000</v>
+        <v>-581.42700000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>28616.971218</v>
+        <v>28616.971217999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.949159</v>
+        <v>7.9491589999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1612.220000</v>
+        <v>1612.22</v>
       </c>
       <c r="BV23" s="1">
-        <v>-834.393000</v>
+        <v>-834.39300000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>28628.002771</v>
+        <v>28628.002770999999</v>
       </c>
       <c r="BY23" s="1">
         <v>7.952223</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1764.790000</v>
+        <v>1764.79</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1110.100000</v>
+        <v>-1110.0999999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>28641.023747</v>
+        <v>28641.023746999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.955840</v>
+        <v>7.9558400000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>2184.600000</v>
+        <v>2184.6</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1780.680000</v>
+        <v>-1780.68</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>28467.563816</v>
+        <v>28467.563816000002</v>
       </c>
       <c r="B24" s="1">
-        <v>7.907657</v>
+        <v>7.9076570000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.760000</v>
+        <v>1149.76</v>
       </c>
       <c r="D24" s="1">
-        <v>-260.328000</v>
+        <v>-260.32799999999997</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>28478.326010</v>
+        <v>28478.326010000001</v>
       </c>
       <c r="G24" s="1">
-        <v>7.910646</v>
+        <v>7.9106459999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1171.800000</v>
+        <v>1171.8</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.967000</v>
+        <v>-217.96700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>28488.828301</v>
+        <v>28488.828301000001</v>
       </c>
       <c r="L24" s="1">
-        <v>7.913563</v>
+        <v>7.9135629999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1199.160000</v>
+        <v>1199.1600000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.332000</v>
+        <v>-151.33199999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>28499.085076</v>
+        <v>28499.085075999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.916413</v>
+        <v>7.9164130000000004</v>
       </c>
       <c r="R24" s="1">
-        <v>1206.700000</v>
+        <v>1206.7</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.813000</v>
+        <v>-128.81299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>28509.216353</v>
       </c>
       <c r="V24" s="1">
-        <v>7.919227</v>
+        <v>7.9192270000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1213.780000</v>
+        <v>1213.78</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.686000</v>
+        <v>-107.68600000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>28519.484531</v>
+        <v>28519.484530999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.922079</v>
+        <v>7.9220790000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1221.040000</v>
+        <v>1221.04</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.291000</v>
+        <v>-90.290999999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>28529.621271</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.924895</v>
+        <v>7.9248950000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>1225.530000</v>
+        <v>1225.53</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.817400</v>
+        <v>-85.817400000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>28539.617146</v>
+        <v>28539.617146000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.927671</v>
+        <v>7.9276710000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1232.420000</v>
+        <v>1232.42</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.072800</v>
+        <v>-89.072800000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>28550.803914</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.930779</v>
+        <v>7.9307790000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1240.170000</v>
+        <v>1240.17</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.986000</v>
+        <v>-100.986</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>28561.958443</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.933877</v>
+        <v>7.9338769999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1249.970000</v>
+        <v>1249.97</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.341000</v>
+        <v>-120.34099999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>28572.879357</v>
+        <v>28572.879357000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.936911</v>
+        <v>7.9369110000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1258.250000</v>
+        <v>1258.25</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.859000</v>
+        <v>-137.85900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>28583.881119</v>
+        <v>28583.881119000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.939967</v>
+        <v>7.9399670000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1297.880000</v>
+        <v>1297.8800000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.151000</v>
+        <v>-220.15100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>28595.228095</v>
+        <v>28595.228094999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.943119</v>
+        <v>7.9431190000000003</v>
       </c>
       <c r="BK24" s="1">
-        <v>1367.070000</v>
+        <v>1367.07</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.477000</v>
+        <v>-357.47699999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>28606.258129</v>
+        <v>28606.258129000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.946183</v>
+        <v>7.9461830000000004</v>
       </c>
       <c r="BP24" s="1">
-        <v>1481.030000</v>
+        <v>1481.03</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-581.425000</v>
+        <v>-581.42499999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>28617.460770</v>
+        <v>28617.460770000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.949295</v>
+        <v>7.9492950000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1612.300000</v>
+        <v>1612.3</v>
       </c>
       <c r="BV24" s="1">
-        <v>-834.193000</v>
+        <v>-834.19299999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>28628.446163</v>
+        <v>28628.446163000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.952346</v>
+        <v>7.9523460000000004</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1764.750000</v>
+        <v>1764.75</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1110.090000</v>
+        <v>-1110.0899999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>28641.541570</v>
+        <v>28641.541570000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.955984</v>
+        <v>7.9559839999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2184.400000</v>
+        <v>2184.4</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1781.490000</v>
+        <v>-1781.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>28468.178396</v>
+        <v>28468.178395999999</v>
       </c>
       <c r="B25" s="1">
-        <v>7.907827</v>
+        <v>7.9078270000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.700000</v>
+        <v>1149.7</v>
       </c>
       <c r="D25" s="1">
-        <v>-260.149000</v>
+        <v>-260.149</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>28478.694046</v>
+        <v>28478.694046000001</v>
       </c>
       <c r="G25" s="1">
-        <v>7.910748</v>
+        <v>7.9107479999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1171.280000</v>
+        <v>1171.28</v>
       </c>
       <c r="I25" s="1">
-        <v>-217.834000</v>
+        <v>-217.834</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>28489.173515</v>
+        <v>28489.173514999999</v>
       </c>
       <c r="L25" s="1">
         <v>7.913659</v>
       </c>
       <c r="M25" s="1">
-        <v>1199.230000</v>
+        <v>1199.23</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.231000</v>
+        <v>-151.23099999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>28499.438221</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.916511</v>
+        <v>7.9165109999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1206.740000</v>
+        <v>1206.74</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.847000</v>
+        <v>-128.84700000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>28509.570000</v>
+        <v>28509.57</v>
       </c>
       <c r="V25" s="1">
-        <v>7.919325</v>
+        <v>7.9193249999999997</v>
       </c>
       <c r="W25" s="1">
-        <v>1213.830000</v>
+        <v>1213.83</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.740000</v>
+        <v>-107.74</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>28519.902658</v>
+        <v>28519.902657999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.922195</v>
+        <v>7.9221950000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>1221.050000</v>
+        <v>1221.05</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.535100</v>
+        <v>-90.5351</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>28530.043367</v>
+        <v>28530.043366999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.925012</v>
+        <v>7.9250119999999997</v>
       </c>
       <c r="AG25" s="1">
-        <v>1225.570000</v>
+        <v>1225.57</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.857300</v>
+        <v>-85.857299999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>28539.881531</v>
+        <v>28539.881530999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.927745</v>
+        <v>7.9277449999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1232.400000</v>
+        <v>1232.4000000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.092300</v>
+        <v>-89.092299999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>28551.194798</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.930887</v>
+        <v>7.9308870000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1240.170000</v>
+        <v>1240.17</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.984000</v>
+        <v>-100.98399999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>28562.320060</v>
+        <v>28562.320059999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.933978</v>
+        <v>7.9339779999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.319000</v>
+        <v>-120.319</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>28573.239948</v>
+        <v>28573.239947999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>7.937011</v>
       </c>
       <c r="BA25" s="1">
-        <v>1258.250000</v>
+        <v>1258.25</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.887000</v>
+        <v>-137.887</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>28584.601805</v>
+        <v>28584.601804999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.940167</v>
+        <v>7.9401669999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1297.880000</v>
+        <v>1297.8800000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.133000</v>
+        <v>-220.13300000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>28595.976558</v>
+        <v>28595.976557999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>7.943327</v>
       </c>
       <c r="BK25" s="1">
-        <v>1367.080000</v>
+        <v>1367.08</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.541000</v>
+        <v>-357.541</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>28606.665344</v>
+        <v>28606.665344000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.946296</v>
+        <v>7.9462960000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1480.970000</v>
+        <v>1480.97</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-581.433000</v>
+        <v>-581.43299999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>28617.890833</v>
+        <v>28617.890833000001</v>
       </c>
       <c r="BT25" s="1">
         <v>7.949414</v>
       </c>
       <c r="BU25" s="1">
-        <v>1612.610000</v>
+        <v>1612.61</v>
       </c>
       <c r="BV25" s="1">
-        <v>-833.972000</v>
+        <v>-833.97199999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>28628.869252</v>
@@ -6617,13 +7033,13 @@
         <v>7.952464</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1764.690000</v>
+        <v>1764.69</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1110.180000</v>
+        <v>-1110.18</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>28642.413505</v>
@@ -6632,30 +7048,30 @@
         <v>7.956226</v>
       </c>
       <c r="CE25" s="1">
-        <v>2181.940000</v>
+        <v>2181.94</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1780.630000</v>
+        <v>-1780.63</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>28468.597478</v>
       </c>
       <c r="B26" s="1">
-        <v>7.907944</v>
+        <v>7.9079439999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.550000</v>
+        <v>1149.55</v>
       </c>
       <c r="D26" s="1">
-        <v>-260.067000</v>
+        <v>-260.06700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>28479.038761</v>
@@ -6664,240 +7080,241 @@
         <v>7.910844</v>
       </c>
       <c r="H26" s="1">
-        <v>1170.960000</v>
+        <v>1170.96</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.359000</v>
+        <v>-218.35900000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>28489.520219</v>
+        <v>28489.520219000002</v>
       </c>
       <c r="L26" s="1">
-        <v>7.913756</v>
+        <v>7.9137560000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1198.890000</v>
+        <v>1198.8900000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.411000</v>
+        <v>-151.411</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>28499.789886</v>
+        <v>28499.789885999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.916608</v>
+        <v>7.9166080000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1206.670000</v>
+        <v>1206.67</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.897000</v>
+        <v>-128.89699999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>28509.999540</v>
+        <v>28509.999540000001</v>
       </c>
       <c r="V26" s="1">
-        <v>7.919444</v>
+        <v>7.9194440000000004</v>
       </c>
       <c r="W26" s="1">
-        <v>1213.850000</v>
+        <v>1213.8499999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.690000</v>
+        <v>-107.69</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>28520.180420</v>
+        <v>28520.180420000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.922272</v>
+        <v>7.9222720000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>1220.930000</v>
+        <v>1220.93</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.439900</v>
+        <v>-90.439899999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>28530.321125</v>
+        <v>28530.321124999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.925089</v>
+        <v>7.9250889999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1225.540000</v>
+        <v>1225.54</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.823200</v>
+        <v>-85.8232</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>28540.231722</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.927842</v>
+        <v>7.9278420000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1232.420000</v>
+        <v>1232.42</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.078200</v>
+        <v>-89.078199999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>28551.574201</v>
+        <v>28551.574200999999</v>
       </c>
       <c r="AP26" s="1">
         <v>7.930993</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1240.180000</v>
+        <v>1240.18</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.994000</v>
+        <v>-100.994</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>28562.687098</v>
+        <v>28562.687097999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.934080</v>
+        <v>7.9340799999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1249.940000</v>
+        <v>1249.94</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.350000</v>
+        <v>-120.35</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>28573.953880</v>
+        <v>28573.953880000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.937209</v>
+        <v>7.9372090000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1258.270000</v>
+        <v>1258.27</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.899000</v>
+        <v>-137.899</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>28584.966365</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.940268</v>
+        <v>7.9402679999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.153000</v>
+        <v>-220.15299999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>28596.357485</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.943433</v>
+        <v>7.9434329999999997</v>
       </c>
       <c r="BK26" s="1">
-        <v>1367.060000</v>
+        <v>1367.06</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.460000</v>
+        <v>-357.46</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>28607.084970</v>
+        <v>28607.08497</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.946412</v>
+        <v>7.9464119999999996</v>
       </c>
       <c r="BP26" s="1">
-        <v>1480.970000</v>
+        <v>1480.97</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-581.412000</v>
+        <v>-581.41200000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>28618.632320</v>
+        <v>28618.632320000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.949620</v>
+        <v>7.9496200000000004</v>
       </c>
       <c r="BU26" s="1">
-        <v>1612.810000</v>
+        <v>1612.81</v>
       </c>
       <c r="BV26" s="1">
-        <v>-834.150000</v>
+        <v>-834.15</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>28629.601379</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.952667</v>
+        <v>7.9526669999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1764.670000</v>
+        <v>1764.67</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1110.000000</v>
+        <v>-1110</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>28642.623344</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.956284</v>
+        <v>7.9562840000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2183.920000</v>
+        <v>2183.92</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1781.220000</v>
+        <v>-1781.22</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>